--- a/Computational Mathematics homework/pt 2/Homework #1/Отчёт.xlsx
+++ b/Computational Mathematics homework/pt 2/Homework #1/Отчёт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\University_Homework\Computational Mathematics homework\pt 2\Homework #1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A5B25F-81F6-4E88-A016-4A174A179025}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4475DEED-427B-4F6A-B693-CA0448B1FF1A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{85381BE7-4610-4313-9045-701BDF74F947}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Метод</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>t = 0.5</t>
+  </si>
+  <si>
+    <t>Рунге-Кутта</t>
   </si>
 </sst>
 </file>
@@ -86,9 +89,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -538,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,126 +550,159 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,37 +715,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1041,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,396 +1060,532 @@
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="58">
+      <c r="E2" s="54"/>
+      <c r="F2" s="31">
         <v>1</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="13">
         <v>0.91513900000000004</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="13">
         <v>0.84090799999999999</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="13">
         <v>0.772698</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="13">
         <v>0.71002100000000001</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="14">
         <v>0.65242800000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="54">
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="27">
         <v>1</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="10">
         <v>0.922601</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="10">
         <v>0.84776399999999996</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="10">
         <v>0.77899799999999997</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="10">
         <v>0.71580999999999995</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="11">
         <v>0.65774699999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="34">
         <v>0.05</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="57">
         <v>-11.357699999999999</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="52">
+      <c r="E4" s="58"/>
+      <c r="F4" s="25">
         <f>F$2 - 1</f>
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <f>G$2 - 1.43931</f>
         <v>-0.52417100000000005</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <f>H$2 - 68.6711</f>
         <v>-67.830191999999997</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <f>I$2 - 8751.09</f>
         <v>-8750.3173019999995</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <f>J$2 - 1128770</f>
         <v>-1128769.2899790001</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <f>K$2 - 145608000</f>
         <v>-145607999.347572</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30" t="s">
+    <row r="5" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="36">
         <v>0.95770299999999997</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="56">
+      <c r="E5" s="37"/>
+      <c r="F5" s="29">
         <f>F$3 - 1</f>
         <v>0</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="16">
         <f>G$3 - 0.399306</f>
         <v>0.52329500000000007</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="16">
         <f>H$3 - (-66.4401)</f>
         <v>67.287863999999999</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="16">
         <f>I$3 - (-8678.78)</f>
         <v>8679.5589980000004</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="16">
         <f>J$3 - (-1119640)</f>
         <v>1119640.71581</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="17">
         <f>K$3 - (-144431000)</f>
         <v>144431000.657747</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="32">
         <v>1E-3</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="38">
         <v>0.75284600000000002</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="57">
+      <c r="E6" s="39"/>
+      <c r="F6" s="30">
         <f>F$2 - 1</f>
         <v>0</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="24">
         <f>G$2 - 0.915107</f>
         <v>3.2000000000032003E-5</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="22">
         <f>H$2 - 0.840848</f>
         <v>5.9999999999948983E-5</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="24">
         <f>I$2 - 0.772615</f>
         <v>8.299999999994423E-5</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="19">
         <f>J$2 - 0.709919</f>
         <v>1.020000000000465E-4</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="20">
         <f>K$2 - 0.652311</f>
         <v>1.1700000000003374E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
+    <row r="7" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="36">
         <v>0.99915399999999999</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="56">
+      <c r="E7" s="37"/>
+      <c r="F7" s="29">
         <f>F$3 - 1</f>
         <v>0</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="23">
         <f>G$3 - 0.922568</f>
         <v>3.2999999999949736E-5</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="21">
         <f>H$3 - 0.847704</f>
         <v>5.9999999999948983E-5</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="23">
         <f>I$3 - 0.778914</f>
         <v>8.3999999999972985E-5</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="16">
         <f>J$3 - 0.715707</f>
         <v>1.0299999999996423E-4</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="17">
         <f>K$3 - 0.657629</f>
         <v>1.1799999999995148E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>0.05</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="38">
         <v>-0.72140400000000005</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="57">
+      <c r="E8" s="39"/>
+      <c r="F8" s="30">
         <f>F$2 - 1</f>
         <v>0</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="19">
         <f>G$2 - 0.917249</f>
         <v>-2.1099999999999453E-3</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="19">
         <f>H$2 - 0.841991</f>
         <v>-1.0830000000000561E-3</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="19">
         <f>I$2 - 0.773244</f>
         <v>-5.4600000000004645E-4</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="19">
         <f>J$2 - 0.710284</f>
         <v>-2.6300000000001322E-4</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="20">
         <f>K$2 - 0.652542</f>
         <v>-1.1399999999994748E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30" t="s">
+    <row r="9" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="36">
         <v>0.95857899999999996</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="56">
+      <c r="E9" s="37"/>
+      <c r="F9" s="29">
         <f>F$3 - 1</f>
         <v>0</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="16">
         <f>G$3 - 0.920485</f>
         <v>2.1160000000000068E-3</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="16">
         <f>H$3 - 0.846648</f>
         <v>1.1160000000000059E-3</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="16">
         <f>I$3 - 0.778399</f>
         <v>5.9900000000001619E-4</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="16">
         <f>J$3 - 0.715477</f>
         <v>3.329999999999167E-4</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="17">
         <f>K$3 - 0.657551</f>
         <v>1.9599999999997397E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="34">
         <v>1E-3</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="40">
         <v>0.78002899999999997</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="52">
+      <c r="E10" s="41"/>
+      <c r="F10" s="25">
         <f>F$2 - 1</f>
         <v>0</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="25">
         <f>G$2 - 0.915139</f>
         <v>0</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="25">
         <f>H$2 - 0.840908</f>
         <v>0</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="25">
         <f>I$2 - 0.772698</f>
         <v>0</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="25">
         <f>J$2 - 0.710021</f>
         <v>0</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="26">
         <f>K$2 - 0.652428</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+    <row r="11" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="51"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="42">
         <v>0.99915399999999999</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="54">
+      <c r="E11" s="43"/>
+      <c r="F11" s="27">
         <f>F$3 - 1</f>
         <v>0</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="27">
         <f>G$3 - 0.922601</f>
         <v>0</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="27">
         <f>H$3 - 0.847764</f>
         <v>0</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="27">
         <f>I$3 - 0.778998</f>
         <v>0</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="27">
         <f>J$3 - 0.71581</f>
         <v>0</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="28">
         <f>K$3 - 0.657747</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F15" s="1"/>
+    <row r="12" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="59">
+        <v>722.18600000000004</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="30">
+        <f>F$2 - 1</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <f>G$2 - 2126.99</f>
+        <v>-2126.0748609999996</v>
+      </c>
+      <c r="H12" s="19">
+        <f>H$2 - 1108860000</f>
+        <v>-1108859999.1590919</v>
+      </c>
+      <c r="I12" s="19">
+        <f>I$2 - 578328000000000</f>
+        <v>-578327999999999.25</v>
+      </c>
+      <c r="J12" s="19">
+        <f>J$2 - 301628000000000000000</f>
+        <v>-3.01628E+20</v>
+      </c>
+      <c r="K12" s="20">
+        <f>K$2 - 1.57315E+26</f>
+        <v>-1.5731500000000001E+26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0.95858500000000002</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="29">
+        <f>F$3 - 1</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <f>G$3 - -2107.96</f>
+        <v>2108.8826010000002</v>
+      </c>
+      <c r="H13" s="16">
+        <f>H$3 - -1099890000</f>
+        <v>1099890000.847764</v>
+      </c>
+      <c r="I13" s="16">
+        <f>I$3 - -573651000000000</f>
+        <v>573651000000000.75</v>
+      </c>
+      <c r="J13" s="16">
+        <f>J$3 - -299189000000000000000</f>
+        <v>2.9918899999999997E+20</v>
+      </c>
+      <c r="K13" s="17">
+        <f>K$3 - -1.56043E+26</f>
+        <v>1.5604299999999999E+26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.78102800000000006</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="25">
+        <f>F$2 - 1</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <f>G$2 - 0.915139</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <f>H$2 - 0.840908</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <f>I$2 - 0.772698</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="25">
+        <f>J$2 - 0.710021</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="26">
+        <f>K$2 - 0.652428</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="51"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="42">
+        <v>0.99915399999999999</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="27">
+        <f>F$3 - 1</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="27">
+        <f>G$3 - 0.922601</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="27">
+        <f>H$3 - 0.847764</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="27">
+        <f>I$3 - 0.778998</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="27">
+        <f>J$3 - 0.71581</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="28">
+        <f>K$3 - 0.657747</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F16" s="1"/>
@@ -1464,7 +1609,25 @@
       <c r="F22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="28">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -1475,16 +1638,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
